--- a/projekt4/tabelki.xlsx
+++ b/projekt4/tabelki.xlsx
@@ -697,9 +697,6 @@
     <t>993.368970932222</t>
   </si>
   <si>
-    <t>3. Elementarna skala długości i zniekształcenia 1ha</t>
-  </si>
-  <si>
     <t>S (średniej szerokości)</t>
   </si>
   <si>
@@ -827,6 +824,9 @@
   </si>
   <si>
     <t>5.03</t>
+  </si>
+  <si>
+    <t>4. Elementarna skala długości i zniekształcenia 1ha</t>
   </si>
 </sst>
 </file>
@@ -860,12 +860,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -895,21 +919,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1192,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,509 +1235,509 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="X1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="X1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
     </row>
     <row r="2" spans="1:29" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="1"/>
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="4" t="s">
         <v>64</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="4" t="s">
         <v>65</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="4" t="s">
         <v>66</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="S5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="X5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="4" t="s">
         <v>67</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="S6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Z6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AC6" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>68</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="S7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="T7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>75</v>
+      <c r="W7" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="X7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Z7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Z7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AC7" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>68</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="S8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>76</v>
+      <c r="W8" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="X8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="Z8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="AB8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
